--- a/all_annotated/NTCT_Q4_2017_3.xlsx
+++ b/all_annotated/NTCT_Q4_2017_3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10910"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dhruv/Desktop/SubjECTive-QA/Dhruv-annotations/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hp/Desktop/SubjECTive-QA/all_annotated/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3669790-1CA7-C544-A343-EA1D6E216CB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E9E0856-A926-8344-AC75-9D45938812C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="36960" yWindow="-780" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="49">
   <si>
     <t>Asker</t>
   </si>
@@ -535,10 +535,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J20"/>
+  <dimension ref="A1:J18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="200" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="200" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19:J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1119,70 +1119,6 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>10</v>
-      </c>
-      <c r="B19" t="s">
-        <v>11</v>
-      </c>
-      <c r="C19" t="s">
-        <v>12</v>
-      </c>
-      <c r="D19" t="s">
-        <v>13</v>
-      </c>
-      <c r="E19">
-        <v>2</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19">
-        <v>1</v>
-      </c>
-      <c r="H19">
-        <v>1</v>
-      </c>
-      <c r="I19">
-        <v>1</v>
-      </c>
-      <c r="J19">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>10</v>
-      </c>
-      <c r="B20" t="s">
-        <v>14</v>
-      </c>
-      <c r="C20" t="s">
-        <v>15</v>
-      </c>
-      <c r="D20" t="s">
-        <v>16</v>
-      </c>
-      <c r="E20">
-        <v>1</v>
-      </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-      <c r="G20">
-        <v>1</v>
-      </c>
-      <c r="H20">
-        <v>1</v>
-      </c>
-      <c r="I20">
-        <v>1</v>
-      </c>
-      <c r="J20">
-        <v>2</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
